--- a/data/Interventions_222 N Lasalle.xlsx
+++ b/data/Interventions_222 N Lasalle.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E37D659-6786-40DC-964B-38D884F7A03D}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{454F159E-2DD5-4055-8AFD-0D0CFA69D83B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28320" yWindow="5430" windowWidth="21600" windowHeight="11325" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="222 Second" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$27</definedName>
@@ -1002,35 +1003,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1041,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -1056,7 +1057,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
@@ -1065,7 +1066,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -1073,7 +1074,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
@@ -1081,7 +1082,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -1089,7 +1090,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -1097,7 +1098,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -1105,7 +1106,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D12" s="29"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -1113,7 +1114,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -1121,7 +1122,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -1129,7 +1130,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -1137,7 +1138,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>18</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>18</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>18</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>18</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C31" s="18" t="s">
         <v>57</v>
       </c>
@@ -1762,7 +1763,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C32" s="18" t="s">
         <v>57</v>
       </c>
@@ -1780,7 +1781,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="18" t="s">
         <v>57</v>
       </c>
@@ -1798,7 +1799,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="23"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1814,7 +1815,7 @@
       <c r="O34" s="12"/>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1830,7 +1831,7 @@
       <c r="O35" s="12"/>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
@@ -1848,7 +1849,7 @@
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
@@ -1868,7 +1869,7 @@
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1884,7 +1885,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="16"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1900,7 +1901,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1916,7 +1917,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="18"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
@@ -1934,7 +1935,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
@@ -1954,7 +1955,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="18"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2013,29 +2014,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2043,4 +2044,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064FD5F9-883E-440A-B06E-4C137BACDA0E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>